--- a/DEFECT REPORT- CINEMA.xlsx
+++ b/DEFECT REPORT- CINEMA.xlsx
@@ -313,20 +313,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -344,27 +337,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,24 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -431,41 +393,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="3"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -761,37 +718,38 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42.75">
+    <row r="6" spans="1:12" ht="45">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,1152 +787,1152 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
-      <c r="A7" s="1">
+    <row r="7" spans="1:12" ht="30">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
         <v>42044</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="31.5">
-      <c r="A8" s="1">
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
         <v>42044</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="1">
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
         <v>42044</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="47.25">
-      <c r="A10" s="1">
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
         <v>42044</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="31.5">
-      <c r="A11" s="1">
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30">
+      <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
         <v>42044</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="31.5">
-      <c r="A12" s="1">
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30">
+      <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
         <v>42044</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="31.5">
-      <c r="A13" s="1">
+      <c r="K12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30">
+      <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
         <v>42044</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="31.5">
-      <c r="A14" s="1">
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
         <v>42044</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="31.5">
-      <c r="A15" s="1">
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30">
+      <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
         <v>42044</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="47.25">
-      <c r="A16" s="1">
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45">
+      <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
         <v>42044</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="47.25">
-      <c r="A17" s="1">
+      <c r="K16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30">
+      <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4">
         <v>42044</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="31.5">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
         <v>42044</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="31.5">
-      <c r="A19" s="1">
+      <c r="K18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30">
+      <c r="A19" s="2">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
         <v>42044</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="47.25">
-      <c r="A20" s="1">
+      <c r="K19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45">
+      <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4">
         <v>42044</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="31.5">
-      <c r="A21" s="1">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="K20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4">
         <v>42045</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="31.5">
-      <c r="A22" s="1">
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4">
         <v>42045</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="47.25">
-      <c r="A23" s="1">
+      <c r="I22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30">
+      <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4">
         <v>42045</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="78.75">
-      <c r="A24" s="1">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="I23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60">
+      <c r="A24" s="2">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4">
         <v>42045</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="47.25">
-      <c r="A25" s="1">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="K24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="45">
+      <c r="A25" s="2">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4">
         <v>42045</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="31.5">
-      <c r="A26" s="1">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30">
+      <c r="A26" s="2">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4">
         <v>42045</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="31.5">
-      <c r="A27" s="1">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="K26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30">
+      <c r="A27" s="2">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="4">
         <v>42045</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="31.5">
-      <c r="A28" s="1">
+      <c r="K27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30">
+      <c r="A28" s="2">
         <v>22</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4">
         <v>42045</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="I28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="94.5">
-      <c r="A29" s="1">
+      <c r="K28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="75">
+      <c r="A29" s="2">
         <v>23</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4">
         <v>42045</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="31.5">
-      <c r="A30" s="1">
+      <c r="I29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30">
+      <c r="A30" s="2">
         <v>24</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
         <v>42045</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="47.25">
-      <c r="A31" s="1">
+      <c r="I30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45">
+      <c r="A31" s="2">
         <v>25</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4">
         <v>42046</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="31.5">
-      <c r="A32" s="1">
+      <c r="I31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30">
+      <c r="A32" s="2">
         <v>26</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4">
         <v>42046</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="47.25">
-      <c r="A33" s="1">
+      <c r="I32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="45">
+      <c r="A33" s="2">
         <v>27</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4">
         <v>42046</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="F33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="31.5">
-      <c r="A34" s="1">
+      <c r="I33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30">
+      <c r="A34" s="2">
         <v>28</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4">
         <v>42046</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="F34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="63">
-      <c r="A35" s="1">
+      <c r="I34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="45">
+      <c r="A35" s="2">
         <v>29</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
         <v>42046</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="31.5">
-      <c r="A36" s="1">
+      <c r="I35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30">
+      <c r="A36" s="2">
         <v>30</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
         <v>42046</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="F36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="47.25">
-      <c r="A37" s="1">
+      <c r="I36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30">
+      <c r="A37" s="2">
         <v>31</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4">
         <v>42046</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="F37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="I37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="47.25">
-      <c r="A38" s="1">
+      <c r="K37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="45">
+      <c r="A38" s="2">
         <v>32</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
         <v>42046</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="47.25">
-      <c r="A39" s="1">
+      <c r="I38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="45">
+      <c r="A39" s="2">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4">
         <v>42046</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="63">
-      <c r="A40" s="1">
+      <c r="I39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="60">
+      <c r="A40" s="2">
         <v>34</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4">
         <v>42046</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="1" t="s">
+      <c r="I40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" ht="31.5">
+      <c r="K40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="5">
         <v>1</v>
       </c>
@@ -2008,7 +1966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="7" customFormat="1">
+    <row r="44" spans="1:12">
       <c r="A44" s="5">
         <v>2</v>
       </c>
@@ -2042,7 +2000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="7" customFormat="1">
+    <row r="45" spans="1:12">
       <c r="A45" s="5">
         <v>3</v>
       </c>
@@ -2076,7 +2034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" ht="63">
+    <row r="46" spans="1:12" ht="60">
       <c r="A46" s="5">
         <v>4</v>
       </c>
@@ -2112,7 +2070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="7" customFormat="1" ht="78.75">
+    <row r="47" spans="1:12" ht="60">
       <c r="A47" s="5">
         <v>5</v>
       </c>
@@ -2146,14 +2104,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="7" customFormat="1" ht="31.5">
+    <row r="48" spans="1:12" ht="30">
       <c r="A48" s="5">
         <v>6</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>42046</v>
       </c>
       <c r="D48" s="5"/>
@@ -2180,7 +2138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="7" customFormat="1" ht="31.5">
+    <row r="49" spans="1:12" ht="30">
       <c r="A49" s="5">
         <v>7</v>
       </c>
@@ -2214,7 +2172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="7" customFormat="1" ht="31.5">
+    <row r="50" spans="1:12" ht="30">
       <c r="A50" s="5">
         <v>8</v>
       </c>
@@ -2248,7 +2206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="7" customFormat="1" ht="47.25">
+    <row r="51" spans="1:12" ht="30">
       <c r="A51" s="5">
         <v>9</v>
       </c>
@@ -2282,7 +2240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="7" customFormat="1" ht="47.25">
+    <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5">
         <v>10</v>
       </c>
@@ -2334,40 +2292,40 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="1:12" ht="57">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
